--- a/data/trans_orig/SEX_BIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Estudios-trans_orig.xlsx
@@ -741,12 +741,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>127887</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88652</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>433941</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1197,12 +1197,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>454467</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1232,12 +1232,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1462,12 +1462,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>195586</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1540,12 +1540,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>152167</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1770,12 +1770,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>758055</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>695944</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>397441</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>227787</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1384866</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2808,12 +2808,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1406959</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3038,12 +3038,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>442098</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>457992</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2132</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2226976</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3494,12 +3494,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2096356</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3963,12 +3963,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3978,12 +3978,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3998,12 +3998,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>272866</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4013,12 +4013,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4076,12 +4076,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>215048</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4126,12 +4126,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4306,12 +4306,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4321,12 +4321,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4341,12 +4341,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>871101</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>872195</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4356,12 +4356,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4419,12 +4419,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>862370</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>863381</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4454,12 +4454,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4469,12 +4469,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4664,12 +4664,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4684,12 +4684,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>415733</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4699,12 +4699,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4762,12 +4762,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>377837</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>378943</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4777,12 +4777,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4797,12 +4797,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4812,12 +4812,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4992,12 +4992,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5007,12 +5007,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5027,12 +5027,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1561708</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1562752</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5042,12 +5042,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5105,12 +5105,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1457137</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1458120</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5120,12 +5120,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5140,12 +5140,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5155,12 +5155,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5574,12 +5574,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>119681</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5687,12 +5687,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>97590</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5702,12 +5702,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5722,12 +5722,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5737,12 +5737,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5917,12 +5917,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5932,12 +5932,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>353748</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -6030,12 +6030,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>356401</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6065,12 +6065,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6260,12 +6260,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>282418</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6373,12 +6373,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>223940</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>757398</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>679629</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">

--- a/data/trans_orig/SEX_BIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en País Vasco</t>
+          <t>Sexo biológico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Andalucia</t>
+          <t>Sexo biológico en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3768,7 +3768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en C.Valenciana</t>
+          <t>Sexo biológico en C.Valenciana (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Barcelona</t>
+          <t>Sexo biológico en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SEX_BIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Estudios-trans_orig.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>121741</t>
+          <t>115859</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>134551</t>
+          <t>127685</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>59,03%</t>
+          <t>59,36%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>56,35%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>61,95%</t>
+          <t>62,1%</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>88989</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>82649</t>
+          <t>77918</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>95459</t>
+          <t>89744</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>43,65%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>420484</t>
+          <t>433034</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>447591</t>
+          <t>460531</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>48,85%</t>
+          <t>49,04%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>50,34%</t>
+          <t>50,54%</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>441477</t>
+          <t>450763</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>468584</t>
+          <t>478260</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>52,71%</t>
+          <t>52,48%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229651</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>187839</t>
+          <t>219969</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>204067</t>
+          <t>238877</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>56,56%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>53,92%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>58,58%</t>
+          <t>58,83%</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>144317</t>
+          <t>167142</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>160545</t>
+          <t>186050</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>43,77%</t>
+          <t>43,44%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>45,82%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>741378</t>
+          <t>782033</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>776080</t>
+          <t>816712</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>52,13%</t>
+          <t>52,44%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>51,35%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>53,35%</t>
+          <t>53,63%</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>678572</t>
+          <t>706204</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>713274</t>
+          <t>740883</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>46,65%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>48,65%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>376473</t>
+          <t>373554</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>420218</t>
+          <t>419131</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>59,96%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>66,93%</t>
+          <t>66,76%</t>
         </is>
       </c>
     </row>
@@ -2535,12 +2535,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>207612</t>
+          <t>208699</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>251357</t>
+          <t>254276</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>40,5%</t>
         </is>
       </c>
     </row>
@@ -2765,12 +2765,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1041437</t>
+          <t>1062850</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1642374</t>
+          <t>1669360</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>58,74%</t>
+          <t>59,71%</t>
         </is>
       </c>
     </row>
@@ -2878,12 +2878,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1153509</t>
+          <t>1126523</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1754446</t>
+          <t>1733033</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>62,75%</t>
+          <t>61,99%</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3108,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>414800</t>
+          <t>414140</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>473816</t>
+          <t>472391</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>45,93%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>52,3%</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3221,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>429359</t>
+          <t>430784</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>488375</t>
+          <t>489035</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>47,54%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>54,15%</t>
         </is>
       </c>
     </row>
@@ -3451,12 +3451,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1877812</t>
+          <t>1867804</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2534434</t>
+          <t>2490360</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>58,57%</t>
+          <t>57,56%</t>
         </is>
       </c>
     </row>
@@ -3564,12 +3564,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1792453</t>
+          <t>1836527</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2449075</t>
+          <t>2459083</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>56,6%</t>
+          <t>56,83%</t>
         </is>
       </c>
     </row>
@@ -5644,12 +5644,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>105304</t>
+          <t>105446</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>135142</t>
+          <t>135931</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>48,08%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>61,71%</t>
+          <t>62,07%</t>
         </is>
       </c>
     </row>
@@ -5757,12 +5757,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>83869</t>
+          <t>83080</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>113707</t>
+          <t>113565</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5772,12 +5772,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>51,92%</t>
+          <t>51,85%</t>
         </is>
       </c>
     </row>
@@ -5987,12 +5987,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>336862</t>
+          <t>336907</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>373406</t>
+          <t>372938</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>52,39%</t>
         </is>
       </c>
     </row>
@@ -6100,12 +6100,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>338446</t>
+          <t>338914</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>374990</t>
+          <t>374945</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>47,54%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>52,68%</t>
+          <t>52,67%</t>
         </is>
       </c>
     </row>
@@ -6330,12 +6330,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>267132</t>
+          <t>268617</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>297652</t>
+          <t>299331</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>58,62%</t>
+          <t>58,95%</t>
         </is>
       </c>
     </row>
@@ -6443,12 +6443,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>210089</t>
+          <t>208410</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>240609</t>
+          <t>239124</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>47,1%</t>
         </is>
       </c>
     </row>
@@ -6673,12 +6673,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>728855</t>
+          <t>730610</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>786719</t>
+          <t>787900</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>50,79%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>54,69%</t>
+          <t>54,77%</t>
         </is>
       </c>
     </row>
@@ -6786,12 +6786,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>651886</t>
+          <t>650705</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>709750</t>
+          <t>707995</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>49,34%</t>
+          <t>49,21%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SEX_BIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Sexo biológico en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -766,12 +766,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -801,37 +801,37 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>698</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>115859</t>
+          <t>408558</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>127685</t>
+          <t>455954</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>59,36%</t>
+          <t>62,89%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>56,35%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>62,1%</t>
+          <t>65,99%</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83560</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -914,37 +914,37 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>291</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>83560</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>77918</t>
+          <t>234945</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>89744</t>
+          <t>282341</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>40,87%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83560</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83560</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83560</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>989</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>205603</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>205603</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>205603</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>446925</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1144,37 +1144,37 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>446925</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>433034</t>
+          <t>1217628</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>460531</t>
+          <t>1322165</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>49,68%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>47,52%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>51,66%</t>
         </is>
       </c>
     </row>
@@ -1187,12 +1187,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>464369</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1257,37 +1257,37 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>464369</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>450763</t>
+          <t>1236947</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>478260</t>
+          <t>1341484</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>50,32%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
+          <t>48,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>52,48%</t>
+          <t>52,42%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>464369</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>464369</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>464369</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>446925</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>446925</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>446925</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2751</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>911294</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>911294</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>911294</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1452,12 +1452,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>229650</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1487,37 +1487,37 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>666</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>229651</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>219969</t>
+          <t>463899</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>238877</t>
+          <t>527612</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>56,56%</t>
+          <t>49,31%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>54,18%</t>
+          <t>46,12%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>58,83%</t>
+          <t>52,46%</t>
         </is>
       </c>
     </row>
@@ -1530,12 +1530,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1600,37 +1600,37 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>487</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>509880</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>167142</t>
+          <t>478174</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>186050</t>
+          <t>541887</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>47,54%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>45,82%</t>
+          <t>53,88%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>229650</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>229650</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>229650</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>406019</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>406019</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>406019</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>3004</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>798619</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1830,37 +1830,37 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>3004</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>798619</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>782033</t>
+          <t>2136224</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>816712</t>
+          <t>2265792</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>51,74%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>51,35%</t>
+          <t>50,2%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>53,63%</t>
+          <t>53,24%</t>
         </is>
       </c>
     </row>
@@ -1873,12 +1873,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>724297</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1943,37 +1943,37 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>724297</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>706204</t>
+          <t>1990005</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>740883</t>
+          <t>2119573</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>48,26%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>46,37%</t>
+          <t>46,76%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>49,8%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>724297</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>724297</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>724297</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>3004</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>798619</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>798619</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>798619</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>4893</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1522916</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1522916</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1522916</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Andalucia (tasa de respuesta: 100,0%)</t>
+          <t>Sexo biológico en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2377,12 +2377,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -2412,37 +2412,37 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>297</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120456</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>373554</t>
+          <t>105446</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>419131</t>
+          <t>135931</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>63,48%</t>
+          <t>55,0%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>59,5%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>66,76%</t>
+          <t>62,07%</t>
         </is>
       </c>
     </row>
@@ -2455,12 +2455,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -2525,37 +2525,37 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>195</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>208699</t>
+          <t>83080</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>254276</t>
+          <t>113565</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>51,85%</t>
         </is>
       </c>
     </row>
@@ -2568,22 +2568,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2603,22 +2603,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2638,22 +2638,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>492</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>809</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -2755,37 +2755,37 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>809</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1386490</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1062850</t>
+          <t>336907</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1669360</t>
+          <t>372938</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>49,59%</t>
+          <t>49,81%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>52,39%</t>
         </is>
       </c>
     </row>
@@ -2798,12 +2798,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>796</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -2868,37 +2868,37 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>796</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357263</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1126523</t>
+          <t>338914</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1733033</t>
+          <t>374945</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>50,41%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>52,67%</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>796</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>809</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2981,22 +2981,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3063,12 +3063,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>762</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -3098,37 +3098,37 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>762</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>414140</t>
+          <t>268617</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>472391</t>
+          <t>299331</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>55,76%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>52,3%</t>
+          <t>58,95%</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -3211,37 +3211,37 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>643</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>430784</t>
+          <t>208410</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>489035</t>
+          <t>239124</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>50,91%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
+          <t>47,1%</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3289,22 +3289,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>762</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3406,12 +3406,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -3441,37 +3441,37 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1867804</t>
+          <t>730610</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2490360</t>
+          <t>787900</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>51,5%</t>
+          <t>52,7%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>50,79%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>57,56%</t>
+          <t>54,77%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -3554,37 +3554,37 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2098487</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1836527</t>
+          <t>650705</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2459083</t>
+          <t>707995</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>48,5%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>49,21%</t>
         </is>
       </c>
     </row>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3632,22 +3632,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3667,22 +3667,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4893</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Sexo biológico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5599,12 +5599,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -5634,37 +5634,37 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>758</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>120456</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>105446</t>
+          <t>115859</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>135931</t>
+          <t>127685</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>55,0%</t>
+          <t>59,36%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>56,35%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>62,07%</t>
+          <t>62,1%</t>
         </is>
       </c>
     </row>
@@ -5677,12 +5677,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -5747,37 +5747,37 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>508</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>83080</t>
+          <t>77918</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>113565</t>
+          <t>89744</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>51,85%</t>
+          <t>43,65%</t>
         </is>
       </c>
     </row>
@@ -5790,22 +5790,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5860,22 +5860,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5942,12 +5942,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -5977,37 +5977,37 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>336907</t>
+          <t>433034</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>372938</t>
+          <t>460531</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>49,81%</t>
+          <t>49,04%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>47,33%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>52,39%</t>
+          <t>50,54%</t>
         </is>
       </c>
     </row>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -6090,37 +6090,37 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>357263</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>338914</t>
+          <t>450763</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>374945</t>
+          <t>478260</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>50,19%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>52,67%</t>
+          <t>52,48%</t>
         </is>
       </c>
     </row>
@@ -6133,22 +6133,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6168,22 +6168,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6203,22 +6203,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6285,12 +6285,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -6320,37 +6320,37 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229651</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>268617</t>
+          <t>219969</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>299331</t>
+          <t>238877</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>55,76%</t>
+          <t>56,56%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>58,95%</t>
+          <t>58,83%</t>
         </is>
       </c>
     </row>
@@ -6363,12 +6363,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -6433,37 +6433,37 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>208410</t>
+          <t>167142</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>239124</t>
+          <t>186050</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>44,24%</t>
+          <t>43,44%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>47,1%</t>
+          <t>45,82%</t>
         </is>
       </c>
     </row>
@@ -6476,22 +6476,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6511,22 +6511,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6546,22 +6546,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6628,12 +6628,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -6663,37 +6663,37 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>730610</t>
+          <t>782033</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>787900</t>
+          <t>816712</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>52,7%</t>
+          <t>52,44%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>51,35%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>53,63%</t>
         </is>
       </c>
     </row>
@@ -6706,12 +6706,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -6776,37 +6776,37 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>650705</t>
+          <t>706204</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>707995</t>
+          <t>740883</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>45,23%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>49,21%</t>
+          <t>48,65%</t>
         </is>
       </c>
     </row>
@@ -6819,22 +6819,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6889,22 +6889,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
